--- a/문서모음/cmmn_cd_공통코드data(0724).xlsx
+++ b/문서모음/cmmn_cd_공통코드data(0724).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mymy\TeamProject\문서모음\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:B62"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1241,10 +1241,10 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -1262,10 +1262,10 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -1283,10 +1283,10 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -1304,10 +1304,10 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -1325,10 +1325,10 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="16" t="s">
@@ -1346,10 +1346,10 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -1367,10 +1367,10 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -1388,10 +1388,10 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -1409,10 +1409,10 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="16" t="s">
@@ -1430,10 +1430,10 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="17" t="s">
@@ -1451,10 +1451,10 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="16" t="s">
@@ -1472,10 +1472,10 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="17" t="s">
